--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>709.2145893884933</v>
+        <v>818.9749949115969</v>
       </c>
       <c r="AB2" t="n">
-        <v>970.3786895408009</v>
+        <v>1120.557718664851</v>
       </c>
       <c r="AC2" t="n">
-        <v>877.7671093460706</v>
+        <v>1013.613262708113</v>
       </c>
       <c r="AD2" t="n">
-        <v>709214.5893884933</v>
+        <v>818974.9949115969</v>
       </c>
       <c r="AE2" t="n">
-        <v>970378.6895408009</v>
+        <v>1120557.718664851</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.575670186477067e-07</v>
+        <v>1.586723507917823e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.72135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>877767.1093460706</v>
+        <v>1013613.262708113</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>500.3941542386586</v>
+        <v>585.7633585344058</v>
       </c>
       <c r="AB3" t="n">
-        <v>684.6613576613846</v>
+        <v>801.4672692023127</v>
       </c>
       <c r="AC3" t="n">
-        <v>619.3182386144319</v>
+        <v>724.9763578960204</v>
       </c>
       <c r="AD3" t="n">
-        <v>500394.1542386586</v>
+        <v>585763.3585344058</v>
       </c>
       <c r="AE3" t="n">
-        <v>684661.3576613846</v>
+        <v>801467.2692023127</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.09917497210504e-06</v>
+        <v>2.033761478262336e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>619318.2386144319</v>
+        <v>724976.3578960204</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>441.7439521190935</v>
+        <v>527.0278155602691</v>
       </c>
       <c r="AB4" t="n">
-        <v>604.4135636570923</v>
+        <v>721.1027080758225</v>
       </c>
       <c r="AC4" t="n">
-        <v>546.7291814414231</v>
+        <v>652.2816776910724</v>
       </c>
       <c r="AD4" t="n">
-        <v>441743.9521190935</v>
+        <v>527027.8155602692</v>
       </c>
       <c r="AE4" t="n">
-        <v>604413.5636570923</v>
+        <v>721102.7080758226</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.196975892304655e-06</v>
+        <v>2.214718786323731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.6953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>546729.181441423</v>
+        <v>652281.6776910725</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>418.293341771476</v>
+        <v>491.3816941075245</v>
       </c>
       <c r="AB5" t="n">
-        <v>572.3274040115695</v>
+        <v>672.3301121082872</v>
       </c>
       <c r="AC5" t="n">
-        <v>517.705279839261</v>
+        <v>608.1638698299104</v>
       </c>
       <c r="AD5" t="n">
-        <v>418293.341771476</v>
+        <v>491381.6941075245</v>
       </c>
       <c r="AE5" t="n">
-        <v>572327.4040115695</v>
+        <v>672330.1121082872</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.245596254303653e-06</v>
+        <v>2.304679185534206e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.20052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>517705.2798392611</v>
+        <v>608163.8698299103</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>388.4221514727914</v>
+        <v>473.6206740593955</v>
       </c>
       <c r="AB6" t="n">
-        <v>531.4563236210007</v>
+        <v>648.0287009175333</v>
       </c>
       <c r="AC6" t="n">
-        <v>480.7348779982466</v>
+        <v>586.1817512159573</v>
       </c>
       <c r="AD6" t="n">
-        <v>388422.1514727914</v>
+        <v>473620.6740593954</v>
       </c>
       <c r="AE6" t="n">
-        <v>531456.3236210007</v>
+        <v>648028.7009175334</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.276477069917995e-06</v>
+        <v>2.361816779463854e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.90755208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>480734.8779982466</v>
+        <v>586181.7512159573</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>374.409983802024</v>
+        <v>447.5835874840931</v>
       </c>
       <c r="AB7" t="n">
-        <v>512.2842576406478</v>
+        <v>612.4036103900146</v>
       </c>
       <c r="AC7" t="n">
-        <v>463.3925670868948</v>
+        <v>553.9566693282562</v>
       </c>
       <c r="AD7" t="n">
-        <v>374409.983802024</v>
+        <v>447583.5874840932</v>
       </c>
       <c r="AE7" t="n">
-        <v>512284.2576406477</v>
+        <v>612403.6103900146</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.299305065134039e-06</v>
+        <v>2.404054547312075e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.69270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>463392.5670868948</v>
+        <v>553956.6693282563</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>365.8645673064561</v>
+        <v>439.0381709885252</v>
       </c>
       <c r="AB8" t="n">
-        <v>500.592041794243</v>
+        <v>600.71139454361</v>
       </c>
       <c r="AC8" t="n">
-        <v>452.8162399107431</v>
+        <v>543.3803421521045</v>
       </c>
       <c r="AD8" t="n">
-        <v>365864.5673064562</v>
+        <v>439038.1709885252</v>
       </c>
       <c r="AE8" t="n">
-        <v>500592.041794243</v>
+        <v>600711.39454361</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.311792772128501e-06</v>
+        <v>2.427160074713709e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.58203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>452816.2399107431</v>
+        <v>543380.3421521045</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>366.1187708940139</v>
+        <v>439.292374576083</v>
       </c>
       <c r="AB9" t="n">
-        <v>500.9398543574102</v>
+        <v>601.0592071067772</v>
       </c>
       <c r="AC9" t="n">
-        <v>453.1308577310396</v>
+        <v>543.6949599724011</v>
       </c>
       <c r="AD9" t="n">
-        <v>366118.7708940139</v>
+        <v>439292.374576083</v>
       </c>
       <c r="AE9" t="n">
-        <v>500939.8543574102</v>
+        <v>601059.2071067772</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.310462306149651e-06</v>
+        <v>2.424698364317647e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.59505208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>453130.8577310396</v>
+        <v>543694.959972401</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>561.6431283178723</v>
+        <v>667.3458558031842</v>
       </c>
       <c r="AB2" t="n">
-        <v>768.4649061105953</v>
+        <v>913.0920411312183</v>
       </c>
       <c r="AC2" t="n">
-        <v>695.1236940186691</v>
+        <v>825.9478182583827</v>
       </c>
       <c r="AD2" t="n">
-        <v>561643.1283178723</v>
+        <v>667345.8558031842</v>
       </c>
       <c r="AE2" t="n">
-        <v>768464.9061105953</v>
+        <v>913092.0411312182</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.913572207996916e-07</v>
+        <v>1.889679861381994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>695123.6940186691</v>
+        <v>825947.8182583826</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>418.4396853955561</v>
+        <v>500.7003294700051</v>
       </c>
       <c r="AB3" t="n">
-        <v>572.527637814261</v>
+        <v>685.080280120411</v>
       </c>
       <c r="AC3" t="n">
-        <v>517.8864036088536</v>
+        <v>619.6971797019302</v>
       </c>
       <c r="AD3" t="n">
-        <v>418439.6853955562</v>
+        <v>500700.3294700051</v>
       </c>
       <c r="AE3" t="n">
-        <v>572527.637814261</v>
+        <v>685080.280120411</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.212321511708158e-06</v>
+        <v>2.310871901802556e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH3" t="n">
-        <v>517886.4036088536</v>
+        <v>619697.1797019301</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>381.7819394928044</v>
+        <v>452.2789609430873</v>
       </c>
       <c r="AB4" t="n">
-        <v>522.3708926445051</v>
+        <v>618.8280275018678</v>
       </c>
       <c r="AC4" t="n">
-        <v>472.5165478026652</v>
+        <v>559.7679490876803</v>
       </c>
       <c r="AD4" t="n">
-        <v>381781.9394928045</v>
+        <v>452278.9609430873</v>
       </c>
       <c r="AE4" t="n">
-        <v>522370.8926445051</v>
+        <v>618828.0275018679</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.299200488725823e-06</v>
+        <v>2.476476640239141e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.10286458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>472516.5478026652</v>
+        <v>559767.9490876803</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>347.7980949420677</v>
+        <v>418.3803677383712</v>
       </c>
       <c r="AB5" t="n">
-        <v>475.8726972687782</v>
+        <v>572.4464767787903</v>
       </c>
       <c r="AC5" t="n">
-        <v>430.4560749329705</v>
+        <v>517.812988468698</v>
       </c>
       <c r="AD5" t="n">
-        <v>347798.0949420677</v>
+        <v>418380.3677383712</v>
       </c>
       <c r="AE5" t="n">
-        <v>475872.6972687782</v>
+        <v>572446.4767787902</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.344861451911039e-06</v>
+        <v>2.563513483036134e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.68619791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>430456.0749329705</v>
+        <v>517812.988468698</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>337.1000937778217</v>
+        <v>407.682366574125</v>
       </c>
       <c r="AB6" t="n">
-        <v>461.2352201133546</v>
+        <v>557.8089996233666</v>
       </c>
       <c r="AC6" t="n">
-        <v>417.2155780534324</v>
+        <v>504.5724915891598</v>
       </c>
       <c r="AD6" t="n">
-        <v>337100.0937778216</v>
+        <v>407682.366574125</v>
       </c>
       <c r="AE6" t="n">
-        <v>461235.2201133546</v>
+        <v>557808.9996233666</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.362874713960839e-06</v>
+        <v>2.597849540532991e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.53645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>417215.5780534323</v>
+        <v>504572.4915891598</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>336.9719151487072</v>
+        <v>407.5541879450107</v>
       </c>
       <c r="AB7" t="n">
-        <v>461.0598404581583</v>
+        <v>557.6336199681705</v>
       </c>
       <c r="AC7" t="n">
-        <v>417.0569363863812</v>
+        <v>504.4138499221086</v>
       </c>
       <c r="AD7" t="n">
-        <v>336971.9151487072</v>
+        <v>407554.1879450107</v>
       </c>
       <c r="AE7" t="n">
-        <v>461059.8404581583</v>
+        <v>557633.6199681705</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.362102027116879e-06</v>
+        <v>2.596376680157791e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.54296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>417056.9363863812</v>
+        <v>504413.8499221086</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.9014364022249</v>
+        <v>363.5968400033497</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.7066201200085</v>
+        <v>497.4892372530649</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.4139181296246</v>
+        <v>450.0095626801614</v>
       </c>
       <c r="AD2" t="n">
-        <v>300901.4364022249</v>
+        <v>363596.8400033497</v>
       </c>
       <c r="AE2" t="n">
-        <v>411706.6201200085</v>
+        <v>497489.2372530649</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.415661345729851e-06</v>
+        <v>3.014988183676474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.38932291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>372413.9181296246</v>
+        <v>450009.5626801614</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>266.3702184727023</v>
+        <v>329.1508734198476</v>
       </c>
       <c r="AB3" t="n">
-        <v>364.4594843390175</v>
+        <v>450.3587461247232</v>
       </c>
       <c r="AC3" t="n">
-        <v>329.6759826757997</v>
+        <v>407.3771394770489</v>
       </c>
       <c r="AD3" t="n">
-        <v>266370.2184727023</v>
+        <v>329150.8734198476</v>
       </c>
       <c r="AE3" t="n">
-        <v>364459.4843390175</v>
+        <v>450358.7461247232</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.499672538436226e-06</v>
+        <v>3.193910038165411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.69921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>329675.9826757998</v>
+        <v>407377.1394770489</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>384.3338498158262</v>
+        <v>460.9658299386364</v>
       </c>
       <c r="AB2" t="n">
-        <v>525.8625289308012</v>
+        <v>630.7137848991906</v>
       </c>
       <c r="AC2" t="n">
-        <v>475.6749472223395</v>
+        <v>570.5193464807679</v>
       </c>
       <c r="AD2" t="n">
-        <v>384333.8498158262</v>
+        <v>460965.8299386365</v>
       </c>
       <c r="AE2" t="n">
-        <v>525862.5289308012</v>
+        <v>630713.7848991907</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.245490289813319e-06</v>
+        <v>2.528775893749256e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.4765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>475674.9472223395</v>
+        <v>570519.3464807679</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.3309609013178</v>
+        <v>368.16173717852</v>
       </c>
       <c r="AB3" t="n">
-        <v>413.6625586058373</v>
+        <v>503.7351309571828</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.1831845915428</v>
+        <v>455.6593570553253</v>
       </c>
       <c r="AD3" t="n">
-        <v>302330.9609013178</v>
+        <v>368161.73717852</v>
       </c>
       <c r="AE3" t="n">
-        <v>413662.5586058373</v>
+        <v>503735.1309571828</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.424352789472141e-06</v>
+        <v>2.891928606485986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.78385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>374183.1845915428</v>
+        <v>455659.3570553253</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.959242998678</v>
+        <v>357.7900192758801</v>
       </c>
       <c r="AB4" t="n">
-        <v>399.4715166035451</v>
+        <v>489.5440889548906</v>
       </c>
       <c r="AC4" t="n">
-        <v>361.3465157206967</v>
+        <v>442.8226881844793</v>
       </c>
       <c r="AD4" t="n">
-        <v>291959.2429986779</v>
+        <v>357790.0192758801</v>
       </c>
       <c r="AE4" t="n">
-        <v>399471.5166035451</v>
+        <v>489544.0889548906</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.454356529146859e-06</v>
+        <v>2.952846571268456e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.53645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>361346.5157206968</v>
+        <v>442822.6881844793</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.261262549955</v>
+        <v>318.4159989197693</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.6820119346034</v>
+        <v>435.6708172444773</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.263237462364</v>
+        <v>394.091005914496</v>
       </c>
       <c r="AD2" t="n">
-        <v>248261.262549955</v>
+        <v>318415.9989197693</v>
       </c>
       <c r="AE2" t="n">
-        <v>339682.0119346034</v>
+        <v>435670.8172444773</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.519730348367606e-06</v>
+        <v>3.384142645941631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.98567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>307263.237462364</v>
+        <v>394091.005914496</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.6364163120014</v>
+        <v>318.7911526818157</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.1953138624509</v>
+        <v>436.184119172325</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.7275505746417</v>
+        <v>394.5553190267738</v>
       </c>
       <c r="AD3" t="n">
-        <v>248636.4163120014</v>
+        <v>318791.1526818157</v>
       </c>
       <c r="AE3" t="n">
-        <v>340195.3138624509</v>
+        <v>436184.1191723251</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.52250071929801e-06</v>
+        <v>3.390311720883596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>307727.5505746417</v>
+        <v>394555.3190267738</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>603.1204410285029</v>
+        <v>698.0530323032172</v>
       </c>
       <c r="AB2" t="n">
-        <v>825.2159952111728</v>
+        <v>955.1069547235803</v>
       </c>
       <c r="AC2" t="n">
-        <v>746.4585388261411</v>
+        <v>863.952887465791</v>
       </c>
       <c r="AD2" t="n">
-        <v>603120.4410285029</v>
+        <v>698053.0323032171</v>
       </c>
       <c r="AE2" t="n">
-        <v>825215.9952111727</v>
+        <v>955106.9547235803</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.55028656636963e-07</v>
+        <v>1.805733486462836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.31510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>746458.538826141</v>
+        <v>863952.8874657911</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>446.8874075768936</v>
+        <v>518.1508790509959</v>
       </c>
       <c r="AB3" t="n">
-        <v>611.4510663276943</v>
+        <v>708.9568919210354</v>
       </c>
       <c r="AC3" t="n">
-        <v>553.0950347343399</v>
+        <v>641.2950411833383</v>
       </c>
       <c r="AD3" t="n">
-        <v>446887.4075768936</v>
+        <v>518150.8790509958</v>
       </c>
       <c r="AE3" t="n">
-        <v>611451.0663276943</v>
+        <v>708956.8919210355</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.183029484510603e-06</v>
+        <v>2.236829168222242e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.17057291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>553095.0347343399</v>
+        <v>641295.0411833383</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>396.8915463863624</v>
+        <v>468.0696770058929</v>
       </c>
       <c r="AB4" t="n">
-        <v>543.0445233850817</v>
+        <v>640.433581856225</v>
       </c>
       <c r="AC4" t="n">
-        <v>491.2171162409842</v>
+        <v>579.3114996580437</v>
       </c>
       <c r="AD4" t="n">
-        <v>396891.5463863625</v>
+        <v>468069.6770058929</v>
       </c>
       <c r="AE4" t="n">
-        <v>543044.5233850817</v>
+        <v>640433.581856225</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.27202351041972e-06</v>
+        <v>2.405095839135679e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.24609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>491217.1162409842</v>
+        <v>579311.4996580436</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>362.9269993105561</v>
+        <v>434.1903812761071</v>
       </c>
       <c r="AB5" t="n">
-        <v>496.5727316658989</v>
+        <v>594.0784347896916</v>
       </c>
       <c r="AC5" t="n">
-        <v>449.1805270999109</v>
+        <v>537.3804227676827</v>
       </c>
       <c r="AD5" t="n">
-        <v>362926.9993105561</v>
+        <v>434190.3812761072</v>
       </c>
       <c r="AE5" t="n">
-        <v>496572.7316658989</v>
+        <v>594078.4347896916</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.317800754723066e-06</v>
+        <v>2.491649789514116e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>449180.5270999109</v>
+        <v>537380.4227676827</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>346.7135011470093</v>
+        <v>417.9768831125604</v>
       </c>
       <c r="AB6" t="n">
-        <v>474.3887081894778</v>
+        <v>571.8944113132706</v>
       </c>
       <c r="AC6" t="n">
-        <v>429.1137156886069</v>
+        <v>517.3136113563786</v>
       </c>
       <c r="AD6" t="n">
-        <v>346713.5011470093</v>
+        <v>417976.8831125604</v>
       </c>
       <c r="AE6" t="n">
-        <v>474388.7081894779</v>
+        <v>571894.4113132706</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.344912943847839e-06</v>
+        <v>2.542912531688067e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.58203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>429113.715688607</v>
+        <v>517313.6113563786</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>343.4023904530482</v>
+        <v>414.6657724185992</v>
       </c>
       <c r="AB7" t="n">
-        <v>469.8583004621059</v>
+        <v>567.3640035858986</v>
       </c>
       <c r="AC7" t="n">
-        <v>425.0156837162683</v>
+        <v>513.21557938404</v>
       </c>
       <c r="AD7" t="n">
-        <v>343402.3904530482</v>
+        <v>414665.7724185992</v>
       </c>
       <c r="AE7" t="n">
-        <v>469858.3004621059</v>
+        <v>567364.0035858986</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.348885250462765e-06</v>
+        <v>2.550423224716201e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.54947916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>425015.6837162683</v>
+        <v>513215.57938404</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>344.800567876534</v>
+        <v>416.0639498420852</v>
       </c>
       <c r="AB8" t="n">
-        <v>471.771348496154</v>
+        <v>569.2770516199465</v>
       </c>
       <c r="AC8" t="n">
-        <v>426.7461531309264</v>
+        <v>514.9460487986981</v>
       </c>
       <c r="AD8" t="n">
-        <v>344800.5678765341</v>
+        <v>416063.9498420851</v>
       </c>
       <c r="AE8" t="n">
-        <v>471771.348496154</v>
+        <v>569277.0516199465</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.348143434167207e-06</v>
+        <v>2.549020625415766e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.55598958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>426746.1531309264</v>
+        <v>514946.0487986982</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.5359604260163</v>
+        <v>305.2482429887914</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.3213774536738</v>
+        <v>417.6541126593211</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.1278986231223</v>
+        <v>377.7937903283434</v>
       </c>
       <c r="AD2" t="n">
-        <v>246535.9604260163</v>
+        <v>305248.2429887914</v>
       </c>
       <c r="AE2" t="n">
-        <v>337321.3774536739</v>
+        <v>417654.1126593211</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.526053782998936e-06</v>
+        <v>3.498580158844259e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.22005208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>305127.8986231224</v>
+        <v>377793.7903283434</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>469.8407045128445</v>
+        <v>560.9176889915288</v>
       </c>
       <c r="AB2" t="n">
-        <v>642.8567798234554</v>
+        <v>767.472328020168</v>
       </c>
       <c r="AC2" t="n">
-        <v>581.5034310122613</v>
+        <v>694.2258461881</v>
       </c>
       <c r="AD2" t="n">
-        <v>469840.7045128445</v>
+        <v>560917.6889915288</v>
       </c>
       <c r="AE2" t="n">
-        <v>642856.7798234555</v>
+        <v>767472.328020168</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.107708093361785e-06</v>
+        <v>2.171092554536156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.62239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>581503.4310122613</v>
+        <v>694225.8461881001</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>366.4682507304783</v>
+        <v>434.7547433843997</v>
       </c>
       <c r="AB3" t="n">
-        <v>501.4180280876231</v>
+        <v>594.8506199241565</v>
       </c>
       <c r="AC3" t="n">
-        <v>453.563395231562</v>
+        <v>538.0789116366827</v>
       </c>
       <c r="AD3" t="n">
-        <v>366468.2507304783</v>
+        <v>434754.7433843997</v>
       </c>
       <c r="AE3" t="n">
-        <v>501418.0280876231</v>
+        <v>594850.6199241565</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.311685603917052e-06</v>
+        <v>2.57088565626871e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.35026041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>453563.395231562</v>
+        <v>538078.9116366827</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>323.1127096947814</v>
+        <v>391.4844536947233</v>
       </c>
       <c r="AB4" t="n">
-        <v>442.0970641311044</v>
+        <v>535.6463006202871</v>
       </c>
       <c r="AC4" t="n">
-        <v>399.9039408175576</v>
+        <v>484.5249694733907</v>
       </c>
       <c r="AD4" t="n">
-        <v>323112.7096947813</v>
+        <v>391484.4536947233</v>
       </c>
       <c r="AE4" t="n">
-        <v>442097.0641311044</v>
+        <v>535646.3006202871</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.387937716351726e-06</v>
+        <v>2.720338742841496e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>399903.9408175576</v>
+        <v>484524.9694733907</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>314.8753923612283</v>
+        <v>383.2471363611702</v>
       </c>
       <c r="AB5" t="n">
-        <v>430.8264031505443</v>
+        <v>524.3756396397268</v>
       </c>
       <c r="AC5" t="n">
-        <v>389.7089359025101</v>
+        <v>474.3299645583431</v>
       </c>
       <c r="AD5" t="n">
-        <v>314875.3923612283</v>
+        <v>383247.1363611703</v>
       </c>
       <c r="AE5" t="n">
-        <v>430826.4031505443</v>
+        <v>524375.6396397268</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.406248174672092e-06</v>
+        <v>2.756226988100084e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.51692708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>389708.9359025101</v>
+        <v>474329.9645583431</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>315.6395676267819</v>
+        <v>384.0113116267239</v>
       </c>
       <c r="AB6" t="n">
-        <v>431.871981461908</v>
+        <v>525.4212179510906</v>
       </c>
       <c r="AC6" t="n">
-        <v>390.6547256873157</v>
+        <v>475.2757543431487</v>
       </c>
       <c r="AD6" t="n">
-        <v>315639.5676267819</v>
+        <v>384011.3116267239</v>
       </c>
       <c r="AE6" t="n">
-        <v>431871.981461908</v>
+        <v>525421.2179510907</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.404606204224885e-06</v>
+        <v>2.753008748715482e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.52994791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>390654.7256873157</v>
+        <v>475275.7543431487</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.9663528763667</v>
+        <v>627.962778803811</v>
       </c>
       <c r="AB2" t="n">
-        <v>731.9645650552561</v>
+        <v>859.2063777219425</v>
       </c>
       <c r="AC2" t="n">
-        <v>662.106894285101</v>
+        <v>777.2049269358846</v>
       </c>
       <c r="AD2" t="n">
-        <v>534966.3528763667</v>
+        <v>627962.7788038111</v>
       </c>
       <c r="AE2" t="n">
-        <v>731964.5650552561</v>
+        <v>859206.3777219425</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02722129632927e-06</v>
+        <v>1.97504155156543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.44921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>662106.894285101</v>
+        <v>777204.9269358846</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.9610391290873</v>
+        <v>482.3968391365478</v>
       </c>
       <c r="AB3" t="n">
-        <v>548.612582889027</v>
+        <v>660.036637153171</v>
       </c>
       <c r="AC3" t="n">
-        <v>496.2537679606934</v>
+        <v>597.0436668705099</v>
       </c>
       <c r="AD3" t="n">
-        <v>400961.0391290874</v>
+        <v>482396.8391365478</v>
       </c>
       <c r="AE3" t="n">
-        <v>548612.582889027</v>
+        <v>660036.637153171</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.243897931982693e-06</v>
+        <v>2.391646386568518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>496253.7679606935</v>
+        <v>597043.66687051</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>354.7992161008044</v>
+        <v>436.1496752536931</v>
       </c>
       <c r="AB4" t="n">
-        <v>485.4519401058281</v>
+        <v>596.7592272477744</v>
       </c>
       <c r="AC4" t="n">
-        <v>439.1210882782042</v>
+        <v>539.805364156082</v>
       </c>
       <c r="AD4" t="n">
-        <v>354799.2161008043</v>
+        <v>436149.6752536931</v>
       </c>
       <c r="AE4" t="n">
-        <v>485451.9401058281</v>
+        <v>596759.2272477745</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.327165722216925e-06</v>
+        <v>2.551745623419743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.95963541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>439121.0882782043</v>
+        <v>539805.3641560819</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>334.9245994335536</v>
+        <v>404.799863029581</v>
       </c>
       <c r="AB5" t="n">
-        <v>458.2586127754903</v>
+        <v>553.8650311066403</v>
       </c>
       <c r="AC5" t="n">
-        <v>414.5230539421992</v>
+        <v>501.0049298922752</v>
       </c>
       <c r="AD5" t="n">
-        <v>334924.5994335536</v>
+        <v>404799.863029581</v>
       </c>
       <c r="AE5" t="n">
-        <v>458258.6127754903</v>
+        <v>553865.0311066404</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.367897712111949e-06</v>
+        <v>2.630061145895856e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.6015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>414523.0539421992</v>
+        <v>501004.9298922752</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>328.9505431210911</v>
+        <v>398.8258067171186</v>
       </c>
       <c r="AB6" t="n">
-        <v>450.0846453720154</v>
+        <v>545.6910637031655</v>
       </c>
       <c r="AC6" t="n">
-        <v>407.1291985154767</v>
+        <v>493.6110744655527</v>
       </c>
       <c r="AD6" t="n">
-        <v>328950.5431210911</v>
+        <v>398825.8067171185</v>
       </c>
       <c r="AE6" t="n">
-        <v>450084.6453720154</v>
+        <v>545691.0637031655</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.378476816608921e-06</v>
+        <v>2.650401622708921e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.51041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>407129.1985154767</v>
+        <v>493611.0744655528</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>330.0535020016777</v>
+        <v>399.928765597705</v>
       </c>
       <c r="AB7" t="n">
-        <v>451.5937623715456</v>
+        <v>547.2001807026957</v>
       </c>
       <c r="AC7" t="n">
-        <v>408.4942875066307</v>
+        <v>494.9761634567067</v>
       </c>
       <c r="AD7" t="n">
-        <v>330053.5020016776</v>
+        <v>399928.765597705</v>
       </c>
       <c r="AE7" t="n">
-        <v>451593.7623715455</v>
+        <v>547200.1807026956</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.377672414654082e-06</v>
+        <v>2.648854996591799e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.51692708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>408494.2875066307</v>
+        <v>494976.1634567067</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>675.6494089654502</v>
+        <v>784.3145157191839</v>
       </c>
       <c r="AB2" t="n">
-        <v>924.4533288947421</v>
+        <v>1073.133721921369</v>
       </c>
       <c r="AC2" t="n">
-        <v>836.2248006634233</v>
+        <v>970.7153456538315</v>
       </c>
       <c r="AD2" t="n">
-        <v>675649.4089654502</v>
+        <v>784314.5157191838</v>
       </c>
       <c r="AE2" t="n">
-        <v>924453.3288947421</v>
+        <v>1073133.721921369</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.89362227488069e-07</v>
+        <v>1.656814374865467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.2265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>836224.8006634233</v>
+        <v>970715.3456538315</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>481.8518762989975</v>
+        <v>566.5018643745843</v>
       </c>
       <c r="AB3" t="n">
-        <v>659.290994956771</v>
+        <v>775.1128431356954</v>
       </c>
       <c r="AC3" t="n">
-        <v>596.369187718819</v>
+        <v>701.1371612645318</v>
       </c>
       <c r="AD3" t="n">
-        <v>481851.8762989976</v>
+        <v>566501.8643745843</v>
       </c>
       <c r="AE3" t="n">
-        <v>659290.994956771</v>
+        <v>775112.8431356953</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.126125510430197e-06</v>
+        <v>2.09788641333825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.60026041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>596369.187718819</v>
+        <v>701137.1612645318</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>429.3311934709359</v>
+        <v>513.8958406919511</v>
       </c>
       <c r="AB4" t="n">
-        <v>587.4298796624199</v>
+        <v>703.1349607191466</v>
       </c>
       <c r="AC4" t="n">
-        <v>531.3663964104521</v>
+        <v>636.028746924226</v>
       </c>
       <c r="AD4" t="n">
-        <v>429331.1934709359</v>
+        <v>513895.8406919511</v>
       </c>
       <c r="AE4" t="n">
-        <v>587429.8796624199</v>
+        <v>703134.9607191466</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.216002857229256e-06</v>
+        <v>2.265321093549522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.59765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>531366.3964104521</v>
+        <v>636028.7469242259</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>402.7049206420393</v>
+        <v>475.176801932236</v>
       </c>
       <c r="AB5" t="n">
-        <v>550.9986385096704</v>
+        <v>650.1578637246705</v>
       </c>
       <c r="AC5" t="n">
-        <v>498.4121017817528</v>
+        <v>588.10770971308</v>
       </c>
       <c r="AD5" t="n">
-        <v>402704.9206420393</v>
+        <v>475176.801932236</v>
       </c>
       <c r="AE5" t="n">
-        <v>550998.6385096704</v>
+        <v>650157.8637246705</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.269882209106179e-06</v>
+        <v>2.365694239540049e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.06380208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>498412.1017817528</v>
+        <v>588107.70971308</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>372.6521319057242</v>
+        <v>445.2092645419415</v>
       </c>
       <c r="AB6" t="n">
-        <v>509.8790871251778</v>
+        <v>609.1549569928272</v>
       </c>
       <c r="AC6" t="n">
-        <v>461.2169426697433</v>
+        <v>551.0180628517828</v>
       </c>
       <c r="AD6" t="n">
-        <v>372652.1319057242</v>
+        <v>445209.2645419415</v>
       </c>
       <c r="AE6" t="n">
-        <v>509879.0871251778</v>
+        <v>609154.9569928272</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.302468629346151e-06</v>
+        <v>2.426400268883665e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.7578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>461216.9426697433</v>
+        <v>551018.0628517828</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>361.2899670472461</v>
+        <v>433.8470996834634</v>
       </c>
       <c r="AB7" t="n">
-        <v>494.3328719024719</v>
+        <v>593.6087417701212</v>
       </c>
       <c r="AC7" t="n">
-        <v>447.1544364086424</v>
+        <v>536.9555565906819</v>
       </c>
       <c r="AD7" t="n">
-        <v>361289.9670472461</v>
+        <v>433847.0996834634</v>
       </c>
       <c r="AE7" t="n">
-        <v>494332.8719024719</v>
+        <v>593608.7417701213</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.318961828326816e-06</v>
+        <v>2.457125847634477e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.61458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>447154.4364086424</v>
+        <v>536955.5565906819</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>358.1992998268064</v>
+        <v>430.7564324630237</v>
       </c>
       <c r="AB8" t="n">
-        <v>490.1040846608516</v>
+        <v>589.379954528501</v>
       </c>
       <c r="AC8" t="n">
-        <v>443.3292386862223</v>
+        <v>533.1303588682615</v>
       </c>
       <c r="AD8" t="n">
-        <v>358199.2998268064</v>
+        <v>430756.4324630237</v>
       </c>
       <c r="AE8" t="n">
-        <v>490104.0846608516</v>
+        <v>589379.954528501</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.321173469844909e-06</v>
+        <v>2.461245968037582e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.59505208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>443329.2386862222</v>
+        <v>533130.3588682616</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>359.3326532479119</v>
+        <v>431.8897858841293</v>
       </c>
       <c r="AB9" t="n">
-        <v>491.6547888116324</v>
+        <v>590.9306586792818</v>
       </c>
       <c r="AC9" t="n">
-        <v>444.7319458092795</v>
+        <v>534.5330659913189</v>
       </c>
       <c r="AD9" t="n">
-        <v>359332.6532479119</v>
+        <v>431889.7858841292</v>
       </c>
       <c r="AE9" t="n">
-        <v>491654.7888116324</v>
+        <v>590930.6586792818</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.321055829338627e-06</v>
+        <v>2.46102681269699e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.59505208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>444731.9458092795</v>
+        <v>534533.0659913189</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.6947594837699</v>
+        <v>486.5381439075333</v>
       </c>
       <c r="AB2" t="n">
-        <v>559.1942002659659</v>
+        <v>665.7029530423054</v>
       </c>
       <c r="AC2" t="n">
-        <v>505.8254906265706</v>
+        <v>602.1691975239096</v>
       </c>
       <c r="AD2" t="n">
-        <v>408694.7594837699</v>
+        <v>486538.1439075333</v>
       </c>
       <c r="AE2" t="n">
-        <v>559194.2002659659</v>
+        <v>665702.9530423053</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.196328907098657e-06</v>
+        <v>2.398038129946662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>505825.4906265706</v>
+        <v>602169.1975239096</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>320.8559005047739</v>
+        <v>398.528603219394</v>
       </c>
       <c r="AB3" t="n">
-        <v>439.0091982339417</v>
+        <v>545.2844167658858</v>
       </c>
       <c r="AC3" t="n">
-        <v>397.110776507773</v>
+        <v>493.2432373412345</v>
       </c>
       <c r="AD3" t="n">
-        <v>320855.9005047739</v>
+        <v>398528.603219394</v>
       </c>
       <c r="AE3" t="n">
-        <v>439009.1982339417</v>
+        <v>545284.4167658858</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.384712529256895e-06</v>
+        <v>2.775652602281454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>397110.776507773</v>
+        <v>493243.2373412345</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.9174938192488</v>
+        <v>366.640394753903</v>
       </c>
       <c r="AB4" t="n">
-        <v>410.3603464694974</v>
+        <v>501.6535631349311</v>
       </c>
       <c r="AC4" t="n">
-        <v>371.1961309468113</v>
+        <v>453.7764511445304</v>
       </c>
       <c r="AD4" t="n">
-        <v>299917.4938192487</v>
+        <v>366640.394753903</v>
       </c>
       <c r="AE4" t="n">
-        <v>410360.3464694974</v>
+        <v>501653.5631349311</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.436281941294807e-06</v>
+        <v>2.879023352308517e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.53645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>371196.1309468113</v>
+        <v>453776.4511445304</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>299.949313748498</v>
+        <v>366.6722146831523</v>
       </c>
       <c r="AB5" t="n">
-        <v>410.4038839004924</v>
+        <v>501.6971005659262</v>
       </c>
       <c r="AC5" t="n">
-        <v>371.2355132264973</v>
+        <v>453.8158334242165</v>
       </c>
       <c r="AD5" t="n">
-        <v>299949.313748498</v>
+        <v>366672.2146831523</v>
       </c>
       <c r="AE5" t="n">
-        <v>410403.8839004924</v>
+        <v>501697.1005659262</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.438114615365256e-06</v>
+        <v>2.882696942635243e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.5234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>371235.5132264973</v>
+        <v>453815.8334242165</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.5223642955384</v>
+        <v>399.9537664890711</v>
       </c>
       <c r="AB2" t="n">
-        <v>445.3940598623184</v>
+        <v>547.234388025224</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.8862759035471</v>
+        <v>495.0071060803833</v>
       </c>
       <c r="AD2" t="n">
-        <v>325522.3642955383</v>
+        <v>399953.7664890711</v>
       </c>
       <c r="AE2" t="n">
-        <v>445394.0598623184</v>
+        <v>547234.388025224</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.352262382961491e-06</v>
+        <v>2.829017472828022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.76692708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>402886.2759035471</v>
+        <v>495007.1060803833</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.9802226050905</v>
+        <v>339.8517166463228</v>
       </c>
       <c r="AB3" t="n">
-        <v>377.6083159564114</v>
+        <v>465.0001119150714</v>
       </c>
       <c r="AC3" t="n">
-        <v>341.5699082581307</v>
+        <v>420.6211538656522</v>
       </c>
       <c r="AD3" t="n">
-        <v>275980.2226050905</v>
+        <v>339851.7166463227</v>
       </c>
       <c r="AE3" t="n">
-        <v>377608.3159564114</v>
+        <v>465000.1119150714</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.482713372631704e-06</v>
+        <v>3.101929101351264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>341569.9082581307</v>
+        <v>420621.1538656522</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>276.2063500360287</v>
+        <v>340.0778440772609</v>
       </c>
       <c r="AB4" t="n">
-        <v>377.9177134834592</v>
+        <v>465.3095094421192</v>
       </c>
       <c r="AC4" t="n">
-        <v>341.8497773194393</v>
+        <v>420.9010229269607</v>
       </c>
       <c r="AD4" t="n">
-        <v>276206.3500360287</v>
+        <v>340077.8440772609</v>
       </c>
       <c r="AE4" t="n">
-        <v>377917.7134834592</v>
+        <v>465309.5094421192</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.485232243367207e-06</v>
+        <v>3.107198736454863e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.62109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>341849.7773194393</v>
+        <v>420901.0229269607</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.3963233259457</v>
+        <v>337.9033831972891</v>
       </c>
       <c r="AB2" t="n">
-        <v>378.1776433197538</v>
+        <v>462.3343161356981</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.0848998169718</v>
+        <v>418.2097778939944</v>
       </c>
       <c r="AD2" t="n">
-        <v>276396.3233259457</v>
+        <v>337903.3831972891</v>
       </c>
       <c r="AE2" t="n">
-        <v>378177.6433197538</v>
+        <v>462334.3161356981</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.478695955197905e-06</v>
+        <v>3.214471734070912e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.07682291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>342084.8998169717</v>
+        <v>418209.7778939944</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.0119767725782</v>
+        <v>319.6042879899454</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.0233693051412</v>
+        <v>437.2966867739062</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.3313144101747</v>
+        <v>395.5617047379584</v>
       </c>
       <c r="AD3" t="n">
-        <v>258011.9767725782</v>
+        <v>319604.2879899454</v>
       </c>
       <c r="AE3" t="n">
-        <v>353023.3693051412</v>
+        <v>437296.6867739062</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.512020921542419e-06</v>
+        <v>3.286915404439218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.80989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>319331.3144101747</v>
+        <v>395561.7047379584</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.4343791075014</v>
+        <v>300.9356796402166</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.7634600096018</v>
+        <v>411.7534732289337</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.1502455807242</v>
+        <v>372.4562996435928</v>
       </c>
       <c r="AD2" t="n">
-        <v>234434.3791075014</v>
+        <v>300935.6796402166</v>
       </c>
       <c r="AE2" t="n">
-        <v>320763.4600096018</v>
+        <v>411753.4732289338</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.509756732174058e-06</v>
+        <v>3.590997095836468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.6953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>290150.2455807242</v>
+        <v>372456.2996435929</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>507.6049096933606</v>
+        <v>588.2677933099867</v>
       </c>
       <c r="AB2" t="n">
-        <v>694.5274313905871</v>
+        <v>804.893947350127</v>
       </c>
       <c r="AC2" t="n">
-        <v>628.2427081140407</v>
+        <v>728.0759986907802</v>
       </c>
       <c r="AD2" t="n">
-        <v>507604.9096933606</v>
+        <v>588267.7933099867</v>
       </c>
       <c r="AE2" t="n">
-        <v>694527.4313905871</v>
+        <v>804893.9473501269</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.066748097977817e-06</v>
+        <v>2.070108098481069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.02604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>628242.7081140408</v>
+        <v>728075.9986907803</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.1599867902457</v>
+        <v>464.7374400437492</v>
       </c>
       <c r="AB3" t="n">
-        <v>525.6246418689066</v>
+        <v>635.8742682367005</v>
       </c>
       <c r="AC3" t="n">
-        <v>475.4597637677556</v>
+        <v>575.1873205313296</v>
       </c>
       <c r="AD3" t="n">
-        <v>384159.9867902457</v>
+        <v>464737.4400437492</v>
       </c>
       <c r="AE3" t="n">
-        <v>525624.6418689066</v>
+        <v>635874.2682367004</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.27510002858447e-06</v>
+        <v>2.47443131190007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.57161458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>475459.7637677556</v>
+        <v>575187.3205313296</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>339.8444796977005</v>
+        <v>408.9840175046219</v>
       </c>
       <c r="AB4" t="n">
-        <v>464.9902100026948</v>
+        <v>559.5899758512587</v>
       </c>
       <c r="AC4" t="n">
-        <v>420.6121969778953</v>
+        <v>506.1834939454777</v>
       </c>
       <c r="AD4" t="n">
-        <v>339844.4796977005</v>
+        <v>408984.0175046219</v>
       </c>
       <c r="AE4" t="n">
-        <v>464990.2100026947</v>
+        <v>559589.9758512587</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.355826246292046e-06</v>
+        <v>2.631086849747275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>420612.1969778953</v>
+        <v>506183.4939454777</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>323.8408073460327</v>
+        <v>392.9803451529541</v>
       </c>
       <c r="AB5" t="n">
-        <v>443.093279458948</v>
+        <v>537.693045307512</v>
       </c>
       <c r="AC5" t="n">
-        <v>400.8050787527087</v>
+        <v>486.3763757202911</v>
       </c>
       <c r="AD5" t="n">
-        <v>323840.8073460327</v>
+        <v>392980.3451529541</v>
       </c>
       <c r="AE5" t="n">
-        <v>443093.2794589479</v>
+        <v>537693.0453075119</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.386920242316648e-06</v>
+        <v>2.691427180427672e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.55598958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>400805.0787527087</v>
+        <v>486376.3757202911</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>323.1210960058215</v>
+        <v>392.2606338127429</v>
       </c>
       <c r="AB6" t="n">
-        <v>442.1085386518475</v>
+        <v>536.7083045004115</v>
       </c>
       <c r="AC6" t="n">
-        <v>399.9143202261455</v>
+        <v>485.4856171937279</v>
       </c>
       <c r="AD6" t="n">
-        <v>323121.0960058215</v>
+        <v>392260.6338127429</v>
       </c>
       <c r="AE6" t="n">
-        <v>442108.5386518475</v>
+        <v>536708.3045004115</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.389308300601989e-06</v>
+        <v>2.696061394264568e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.53645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>399914.3202261456</v>
+        <v>485485.6171937279</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>632.3245814547913</v>
+        <v>740.1207169373399</v>
       </c>
       <c r="AB2" t="n">
-        <v>865.1743885381658</v>
+        <v>1012.665816735251</v>
       </c>
       <c r="AC2" t="n">
-        <v>782.6033591759632</v>
+        <v>916.0184124714378</v>
       </c>
       <c r="AD2" t="n">
-        <v>632324.5814547914</v>
+        <v>740120.7169373399</v>
       </c>
       <c r="AE2" t="n">
-        <v>865174.3885381657</v>
+        <v>1012665.816735251</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.218595629259913e-07</v>
+        <v>1.729770120328866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.7578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>782603.3591759632</v>
+        <v>916018.4124714378</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>464.7072324391461</v>
+        <v>548.4444551674252</v>
       </c>
       <c r="AB3" t="n">
-        <v>635.832936859417</v>
+        <v>750.4058992217898</v>
       </c>
       <c r="AC3" t="n">
-        <v>575.1499337626852</v>
+        <v>678.7882134013557</v>
       </c>
       <c r="AD3" t="n">
-        <v>464707.2324391461</v>
+        <v>548444.4551674252</v>
       </c>
       <c r="AE3" t="n">
-        <v>635832.936859417</v>
+        <v>750405.8992217898</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.153854638994066e-06</v>
+        <v>2.165083878285939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>575149.9337626853</v>
+        <v>678788.2134013558</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>413.3929678905922</v>
+        <v>485.2287007693185</v>
       </c>
       <c r="AB4" t="n">
-        <v>565.6224962785066</v>
+        <v>663.9113151720458</v>
       </c>
       <c r="AC4" t="n">
-        <v>511.6402790898446</v>
+        <v>600.548551057408</v>
       </c>
       <c r="AD4" t="n">
-        <v>413392.9678905922</v>
+        <v>485228.7007693185</v>
       </c>
       <c r="AE4" t="n">
-        <v>565622.4962785066</v>
+        <v>663911.3151720457</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.243269655018259e-06</v>
+        <v>2.332861519531487e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>511640.2790898446</v>
+        <v>600548.551057408</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>378.0483523089389</v>
+        <v>461.7854855286669</v>
       </c>
       <c r="AB5" t="n">
-        <v>517.2624339452984</v>
+        <v>631.8352738381228</v>
       </c>
       <c r="AC5" t="n">
-        <v>467.895633231944</v>
+        <v>571.5338020893881</v>
       </c>
       <c r="AD5" t="n">
-        <v>378048.3523089389</v>
+        <v>461785.4855286669</v>
       </c>
       <c r="AE5" t="n">
-        <v>517262.4339452984</v>
+        <v>631835.2738381228</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.291096843212679e-06</v>
+        <v>2.422604083806102e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>467895.6332319441</v>
+        <v>571533.8020893881</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>359.5843645229465</v>
+        <v>431.5053487476933</v>
       </c>
       <c r="AB6" t="n">
-        <v>491.9991912828523</v>
+        <v>590.4046548290407</v>
       </c>
       <c r="AC6" t="n">
-        <v>445.043478992018</v>
+        <v>534.0572632102939</v>
       </c>
       <c r="AD6" t="n">
-        <v>359584.3645229465</v>
+        <v>431505.3487476933</v>
       </c>
       <c r="AE6" t="n">
-        <v>491999.1912828523</v>
+        <v>590404.6548290408</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.323527282826654e-06</v>
+        <v>2.483456308688741e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>445043.478992018</v>
+        <v>534057.2632102938</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>351.2258160660471</v>
+        <v>423.146800290794</v>
       </c>
       <c r="AB7" t="n">
-        <v>480.56265653099</v>
+        <v>578.9681200771785</v>
       </c>
       <c r="AC7" t="n">
-        <v>434.6984310655962</v>
+        <v>523.7122152838718</v>
       </c>
       <c r="AD7" t="n">
-        <v>351225.8160660471</v>
+        <v>423146.800290794</v>
       </c>
       <c r="AE7" t="n">
-        <v>480562.65653099</v>
+        <v>578968.1200771785</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.334345337299202e-06</v>
+        <v>2.50375522203657e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.57552083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>434698.4310655962</v>
+        <v>523712.2152838719</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>352.1593721329884</v>
+        <v>424.0803563577352</v>
       </c>
       <c r="AB8" t="n">
-        <v>481.839989127366</v>
+        <v>580.2454526735544</v>
       </c>
       <c r="AC8" t="n">
-        <v>435.8538568317215</v>
+        <v>524.8676410499971</v>
       </c>
       <c r="AD8" t="n">
-        <v>352159.3721329884</v>
+        <v>424080.3563577352</v>
       </c>
       <c r="AE8" t="n">
-        <v>481839.989127366</v>
+        <v>580245.4526735544</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.334440232513873e-06</v>
+        <v>2.503933282679972e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.57552083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>435853.8568317215</v>
+        <v>524867.6410499972</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.8597825777862</v>
+        <v>292.9811333204228</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.1360511038077</v>
+        <v>400.8697120243757</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.250785875761</v>
+        <v>362.6112693329429</v>
       </c>
       <c r="AD2" t="n">
-        <v>228859.7825777862</v>
+        <v>292981.1333204228</v>
       </c>
       <c r="AE2" t="n">
-        <v>313136.0511038078</v>
+        <v>400869.7120243757</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.438281835837567e-06</v>
+        <v>3.597033720894829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.79557291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>283250.7858757611</v>
+        <v>362611.2693329429</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>360.0264094192883</v>
+        <v>424.9101807738969</v>
       </c>
       <c r="AB2" t="n">
-        <v>492.6040166116718</v>
+        <v>581.3808550490162</v>
       </c>
       <c r="AC2" t="n">
-        <v>445.5905806403325</v>
+        <v>525.8946822162923</v>
       </c>
       <c r="AD2" t="n">
-        <v>360026.4094192883</v>
+        <v>424910.1807738969</v>
       </c>
       <c r="AE2" t="n">
-        <v>492604.0166116718</v>
+        <v>581380.8550490162</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.298272161991709e-06</v>
+        <v>2.673510387326133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.10546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>445590.5806403325</v>
+        <v>525894.6822162922</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.6358604612432</v>
+        <v>351.5195423073009</v>
       </c>
       <c r="AB3" t="n">
-        <v>392.1878297647643</v>
+        <v>480.9645457325605</v>
       </c>
       <c r="AC3" t="n">
-        <v>354.7579737310906</v>
+        <v>435.0619645258238</v>
       </c>
       <c r="AD3" t="n">
-        <v>286635.8604612433</v>
+        <v>351519.5423073008</v>
       </c>
       <c r="AE3" t="n">
-        <v>392187.8297647643</v>
+        <v>480964.5457325605</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.46110160338784e-06</v>
+        <v>3.008822362487969e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>354757.9737310906</v>
+        <v>435061.9645258238</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>284.8522799657372</v>
+        <v>349.7359618117947</v>
       </c>
       <c r="AB4" t="n">
-        <v>389.7474562447949</v>
+        <v>478.524172212591</v>
       </c>
       <c r="AC4" t="n">
-        <v>352.5505060347812</v>
+        <v>432.8544968295144</v>
       </c>
       <c r="AD4" t="n">
-        <v>284852.2799657372</v>
+        <v>349735.9618117947</v>
       </c>
       <c r="AE4" t="n">
-        <v>389747.4562447949</v>
+        <v>478524.172212591</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466065915625527e-06</v>
+        <v>3.019045288559977e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.6015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>352550.5060347812</v>
+        <v>432854.4968295144</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>445.0062919486443</v>
+        <v>523.7501919040386</v>
       </c>
       <c r="AB2" t="n">
-        <v>608.8772409361594</v>
+        <v>716.6181187908177</v>
       </c>
       <c r="AC2" t="n">
-        <v>550.7668516257864</v>
+        <v>648.225091313268</v>
       </c>
       <c r="AD2" t="n">
-        <v>445006.2919486443</v>
+        <v>523750.1919040387</v>
       </c>
       <c r="AE2" t="n">
-        <v>608877.2409361594</v>
+        <v>716618.1187908177</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.149662340675265e-06</v>
+        <v>2.27769276326089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.24479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>550766.8516257864</v>
+        <v>648225.0913132679</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>348.8896441408754</v>
+        <v>416.3722367674962</v>
       </c>
       <c r="AB3" t="n">
-        <v>477.3662030383388</v>
+        <v>569.6988633919532</v>
       </c>
       <c r="AC3" t="n">
-        <v>431.8070426080329</v>
+        <v>515.327603447201</v>
       </c>
       <c r="AD3" t="n">
-        <v>348889.6441408754</v>
+        <v>416372.2367674962</v>
       </c>
       <c r="AE3" t="n">
-        <v>477366.2030383388</v>
+        <v>569698.8633919532</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.346102610648857e-06</v>
+        <v>2.666877105046901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.16796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>431807.0426080329</v>
+        <v>515327.603447201</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>310.4381491289678</v>
+        <v>378.0059931016092</v>
       </c>
       <c r="AB4" t="n">
-        <v>424.7551712028099</v>
+        <v>517.2044762090737</v>
       </c>
       <c r="AC4" t="n">
-        <v>384.21713381084</v>
+        <v>467.8432069007204</v>
       </c>
       <c r="AD4" t="n">
-        <v>310438.1491289678</v>
+        <v>378005.9931016092</v>
       </c>
       <c r="AE4" t="n">
-        <v>424755.17120281</v>
+        <v>517204.4762090737</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.414274352437619e-06</v>
+        <v>2.801937876751357e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.58203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>384217.13381084</v>
+        <v>467843.2069007204</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>307.6226210679446</v>
+        <v>375.1904650405859</v>
       </c>
       <c r="AB5" t="n">
-        <v>420.9028414973865</v>
+        <v>513.3521465036501</v>
       </c>
       <c r="AC5" t="n">
-        <v>380.7324650457233</v>
+        <v>464.3585381356037</v>
       </c>
       <c r="AD5" t="n">
-        <v>307622.6210679446</v>
+        <v>375190.465040586</v>
       </c>
       <c r="AE5" t="n">
-        <v>420902.8414973865</v>
+        <v>513352.1465036501</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.420739347876627e-06</v>
+        <v>2.814746222997868e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.52994791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>380732.4650457233</v>
+        <v>464358.5381356037</v>
       </c>
     </row>
   </sheetData>
